--- a/data/20200609.xlsx
+++ b/data/20200609.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="7030" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="11470" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM  8 Jun 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM  9 Jun 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W127"/>
+  <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B33" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -8757,7 +8757,7 @@
         <v>43980</v>
       </c>
       <c r="B117" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C117" s="2">
         <v>10</v>
@@ -8793,7 +8793,7 @@
         <v>46</v>
       </c>
       <c r="N117" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O117" s="2">
         <v>4</v>
@@ -9041,7 +9041,7 @@
         <v>43984</v>
       </c>
       <c r="B121" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C121" s="2">
         <v>18</v>
@@ -9092,7 +9092,7 @@
         <v>8</v>
       </c>
       <c r="S121" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T121" s="2">
         <v>35</v>
@@ -9254,7 +9254,7 @@
         <v>43987</v>
       </c>
       <c r="B124" s="2">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C124" s="2">
         <v>10</v>
@@ -9317,7 +9317,7 @@
         <v>46</v>
       </c>
       <c r="W124" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9325,7 +9325,7 @@
         <v>43988</v>
       </c>
       <c r="B125" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C125" s="2">
         <v>5</v>
@@ -9334,10 +9334,10 @@
         <v>16</v>
       </c>
       <c r="E125" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G125" s="2">
         <v>19</v>
@@ -9361,7 +9361,7 @@
         <v>23</v>
       </c>
       <c r="N125" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O125" s="2">
         <v>1</v>
@@ -9388,7 +9388,7 @@
         <v>19</v>
       </c>
       <c r="W125" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9396,28 +9396,28 @@
         <v>43989</v>
       </c>
       <c r="B126" s="2">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="C126" s="2">
         <v>18</v>
       </c>
       <c r="D126" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
       </c>
       <c r="F126" s="2">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G126" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H126" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I126" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J126" s="2">
         <v>3</v>
@@ -9432,34 +9432,34 @@
         <v>12</v>
       </c>
       <c r="N126" s="2">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O126" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P126" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q126" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R126" s="2">
         <v>4</v>
       </c>
       <c r="S126" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T126" s="2">
         <v>0</v>
       </c>
       <c r="U126" s="2">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="V126" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W126" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9467,70 +9467,141 @@
         <v>43990</v>
       </c>
       <c r="B127" s="2">
-        <v>68</v>
+        <v>536</v>
       </c>
       <c r="C127" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
       </c>
       <c r="F127" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G127" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H127" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J127" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K127" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L127" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M127" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N127" s="2">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="O127" s="2">
         <v>10</v>
       </c>
       <c r="P127" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>15</v>
+      </c>
+      <c r="R127" s="2">
+        <v>4</v>
+      </c>
+      <c r="S127" s="2">
+        <v>23</v>
+      </c>
+      <c r="T127" s="2">
+        <v>67</v>
+      </c>
+      <c r="U127" s="2">
+        <v>121</v>
+      </c>
+      <c r="V127" s="2">
         <v>7</v>
       </c>
-      <c r="Q127" s="2">
-        <v>0</v>
-      </c>
-      <c r="R127" s="2">
-        <v>0</v>
-      </c>
-      <c r="S127" s="2">
+      <c r="W127" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B128" s="2">
+        <v>202</v>
+      </c>
+      <c r="C128" s="2">
+        <v>0</v>
+      </c>
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+      <c r="E128" s="2">
+        <v>0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>4</v>
+      </c>
+      <c r="H128" s="2">
         <v>6</v>
       </c>
-      <c r="T127" s="2">
+      <c r="I128" s="2">
+        <v>6</v>
+      </c>
+      <c r="J128" s="2">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1</v>
+      </c>
+      <c r="M128" s="2">
+        <v>0</v>
+      </c>
+      <c r="N128" s="2">
+        <v>42</v>
+      </c>
+      <c r="O128" s="2">
+        <v>2</v>
+      </c>
+      <c r="P128" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>5</v>
+      </c>
+      <c r="R128" s="2">
+        <v>0</v>
+      </c>
+      <c r="S128" s="2">
+        <v>1</v>
+      </c>
+      <c r="T128" s="2">
+        <v>24</v>
+      </c>
+      <c r="U128" s="2">
+        <v>78</v>
+      </c>
+      <c r="V128" s="2">
+        <v>0</v>
+      </c>
+      <c r="W128" s="2">
         <v>21</v>
-      </c>
-      <c r="U127" s="2">
-        <v>3</v>
-      </c>
-      <c r="V127" s="2">
-        <v>0</v>
-      </c>
-      <c r="W127" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9540,13 +9611,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -10193,7 +10267,7 @@
         <v>43980</v>
       </c>
       <c r="B81" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -10217,7 +10291,7 @@
         <v>43983</v>
       </c>
       <c r="B84" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -10233,7 +10307,7 @@
         <v>43985</v>
       </c>
       <c r="B86" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -10249,7 +10323,7 @@
         <v>43987</v>
       </c>
       <c r="B88" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -10257,7 +10331,7 @@
         <v>43988</v>
       </c>
       <c r="B89" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -10265,15 +10339,31 @@
         <v>43989</v>
       </c>
       <c r="B90" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B91" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="2">
-        <v>11</v>
+      <c r="B93" s="2">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -10283,13 +10373,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -10392,7 +10485,7 @@
         <v>43907</v>
       </c>
       <c r="B13" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10472,7 +10565,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10560,7 +10653,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10568,7 +10661,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -11016,7 +11109,7 @@
         <v>43985</v>
       </c>
       <c r="B91" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -11024,7 +11117,7 @@
         <v>43986</v>
       </c>
       <c r="B92" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -11032,7 +11125,7 @@
         <v>43987</v>
       </c>
       <c r="B93" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -11040,7 +11133,7 @@
         <v>43988</v>
       </c>
       <c r="B94" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -11048,7 +11141,15 @@
         <v>43989</v>
       </c>
       <c r="B95" s="2">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B96" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -11088,16 +11189,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C2" s="2">
-        <v>186.08323669433594</v>
+        <v>192.34866333007813</v>
       </c>
       <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11105,10 +11206,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="C3" s="2">
-        <v>456.651123046875</v>
+        <v>461.5128173828125</v>
       </c>
       <c r="D3" s="2">
         <v>61</v>
@@ -11122,10 +11223,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
-        <v>150.78912353515625</v>
+        <v>152.46456909179688</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -11139,16 +11240,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1516</v>
+        <v>1542</v>
       </c>
       <c r="C5" s="2">
-        <v>527.5208740234375</v>
+        <v>536.56805419921875</v>
       </c>
       <c r="D5" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11156,13 +11257,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>920</v>
+        <v>937</v>
       </c>
       <c r="C6" s="2">
-        <v>275.57452392578125</v>
+        <v>280.66665649414063</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2">
         <v>57</v>
@@ -11173,10 +11274,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="C7" s="2">
-        <v>618.4542236328125</v>
+        <v>624.57000732421875</v>
       </c>
       <c r="D7" s="2">
         <v>16</v>
@@ -11190,16 +11291,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1751</v>
+        <v>1792</v>
       </c>
       <c r="C8" s="2">
-        <v>481.57449340820313</v>
+        <v>492.85064697265625</v>
       </c>
       <c r="D8" s="2">
         <v>78</v>
       </c>
       <c r="E8" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -11207,16 +11308,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="C9" s="2">
-        <v>166.22801208496094</v>
+        <v>171.52449035644531</v>
       </c>
       <c r="D9" s="2">
         <v>27</v>
       </c>
       <c r="E9" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -11224,16 +11325,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="C10" s="2">
-        <v>461.60946655273438</v>
+        <v>464.09124755859375</v>
       </c>
       <c r="D10" s="2">
         <v>17</v>
       </c>
       <c r="E10" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11241,16 +11342,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="C11" s="2">
-        <v>201.12518310546875</v>
+        <v>213.12071228027344</v>
       </c>
       <c r="D11" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11258,16 +11359,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1995</v>
+        <v>2028</v>
       </c>
       <c r="C12" s="2">
-        <v>144.793212890625</v>
+        <v>147.18829345703125</v>
       </c>
       <c r="D12" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11275,16 +11376,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>14803</v>
+        <v>14971</v>
       </c>
       <c r="C13" s="2">
-        <v>622.73858642578125</v>
+        <v>629.8060302734375</v>
       </c>
       <c r="D13" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E13" s="2">
-        <v>2157</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11292,13 +11393,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="C14" s="2">
-        <v>560.9329833984375</v>
+        <v>562.27734375</v>
       </c>
       <c r="D14" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2">
         <v>230</v>
@@ -11309,16 +11410,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>2244</v>
+        <v>2262</v>
       </c>
       <c r="C15" s="2">
-        <v>584.81207275390625</v>
+        <v>589.50311279296875</v>
       </c>
       <c r="D15" s="2">
         <v>132</v>
       </c>
       <c r="E15" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -11326,16 +11427,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>641</v>
+        <v>662</v>
       </c>
       <c r="C16" s="2">
-        <v>226.97175598144531</v>
+        <v>234.40763854980469</v>
       </c>
       <c r="D16" s="2">
         <v>26</v>
       </c>
       <c r="E16" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11343,10 +11444,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C17" s="2">
-        <v>196.88226318359375</v>
+        <v>198.35427856445313</v>
       </c>
       <c r="D17" s="2">
         <v>29</v>
@@ -11360,10 +11461,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="C18" s="2">
-        <v>361.52877807617188</v>
+        <v>368.86532592773438</v>
       </c>
       <c r="D18" s="2">
         <v>41</v>
@@ -11377,13 +11478,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1457</v>
+        <v>1527</v>
       </c>
       <c r="C19" s="2">
-        <v>528.1951904296875</v>
+        <v>553.57177734375</v>
       </c>
       <c r="D19" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2">
         <v>148</v>
@@ -11394,16 +11495,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>8128</v>
+        <v>8383</v>
       </c>
       <c r="C20" s="2">
-        <v>470.9478759765625</v>
+        <v>485.72293090820313</v>
       </c>
       <c r="D20" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E20" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11411,10 +11512,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1975</v>
+        <v>1983</v>
       </c>
       <c r="C21" s="2">
-        <v>647.95526123046875</v>
+        <v>650.57989501953125</v>
       </c>
       <c r="D21" s="2">
         <v>73</v>
@@ -11428,13 +11529,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>2260</v>
+        <v>2287</v>
       </c>
       <c r="C22" s="2">
-        <v>485.50466918945313</v>
+        <v>491.30496215820313</v>
       </c>
       <c r="D22" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2">
         <v>198</v>
@@ -11450,7 +11551,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -11474,13 +11575,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>17996</v>
+        <v>18352</v>
       </c>
       <c r="C2" s="2">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="D2" s="2">
-        <v>2575</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11488,13 +11589,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>27136</v>
+        <v>27571</v>
       </c>
       <c r="C3" s="2">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D3" s="2">
-        <v>2119</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11523,6 +11624,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -11543,7 +11647,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -11557,7 +11661,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="C3" s="2">
         <v>9</v>
@@ -11571,7 +11675,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>4543</v>
+        <v>4631</v>
       </c>
       <c r="C4" s="2">
         <v>81</v>
@@ -11585,7 +11689,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>6020</v>
+        <v>6165</v>
       </c>
       <c r="C5" s="2">
         <v>98</v>
@@ -11599,10 +11703,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>7061</v>
+        <v>7236</v>
       </c>
       <c r="C6" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D6" s="2">
         <v>42</v>
@@ -11613,13 +11717,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>8389</v>
+        <v>8541</v>
       </c>
       <c r="C7" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D7" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11627,13 +11731,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>5349</v>
+        <v>5425</v>
       </c>
       <c r="C8" s="2">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D8" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11641,10 +11745,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>4451</v>
+        <v>4508</v>
       </c>
       <c r="C9" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D9" s="2">
         <v>1031</v>
@@ -11655,13 +11759,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>5463</v>
+        <v>5506</v>
       </c>
       <c r="C10" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2">
-        <v>1930</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11669,13 +11773,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2994</v>
+        <v>3017</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1193</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11683,7 +11787,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -11701,7 +11805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
